--- a/liensAllUserES.xlsx
+++ b/liensAllUserES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F066983A-64EA-4A54-826D-A5B536421EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA8BE0E-C661-4A83-89F4-2D4338D2E2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57930" yWindow="3255" windowWidth="21255" windowHeight="17325" xr2:uid="{33289459-2E08-4B17-8B7A-3F63FBDA83CA}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{33289459-2E08-4B17-8B7A-3F63FBDA83CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="97">
   <si>
     <t>VentasES</t>
   </si>
@@ -107,18 +107,6 @@
     <t>Liens :</t>
   </si>
   <si>
-    <t>Easy-It</t>
-  </si>
-  <si>
-    <t>https://easy-it.kiabi.fr/</t>
-  </si>
-  <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
     <t>Forecast &amp; Replenishment</t>
   </si>
   <si>
@@ -146,12 +134,6 @@
     <t>Programa de DecisionES</t>
   </si>
   <si>
-    <t>Kiperf</t>
-  </si>
-  <si>
-    <t>https://kiperf.kiabi.pro/</t>
-  </si>
-  <si>
     <t>microsoft-edge:https://bo.kiabi.fr:8443/BOE/BI</t>
   </si>
   <si>
@@ -159,12 +141,6 @@
   </si>
   <si>
     <t>Recursor HumanosES</t>
-  </si>
-  <si>
-    <t>TalentEd</t>
-  </si>
-  <si>
-    <t>https://talented.gcp.kiabi.pro</t>
   </si>
   <si>
     <t>Docubase</t>
@@ -752,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1882829-96C0-46D4-80A3-21B74BC0D8FF}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,41 +952,28 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1019,10 +982,10 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1031,10 +994,10 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1043,96 +1006,78 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
@@ -1147,7 +1092,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
@@ -1159,7 +1104,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
@@ -1171,14 +1116,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1186,14 +1131,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1201,28 +1146,28 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1230,7 +1175,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
@@ -1242,26 +1187,26 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1269,14 +1214,14 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1284,16 +1229,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1301,14 +1246,14 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1316,16 +1261,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -1333,14 +1278,14 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -1348,14 +1293,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -1363,16 +1308,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -1380,16 +1325,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -1397,14 +1342,14 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -1412,33 +1357,33 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
@@ -1450,7 +1395,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
@@ -1462,16 +1407,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -1479,14 +1424,14 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -1494,42 +1439,42 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -1537,14 +1482,14 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -1552,50 +1497,50 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
@@ -1606,19 +1551,19 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
@@ -1630,16 +1575,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -1647,14 +1592,14 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -1662,28 +1607,28 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
@@ -1691,7 +1636,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>22</v>
@@ -1705,7 +1650,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
@@ -1717,16 +1662,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -1734,14 +1679,14 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -1749,22 +1694,22 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
@@ -1775,19 +1720,19 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
@@ -1799,45 +1744,45 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="s">
